--- a/src/test/resources/testdata/sauceDemoLoginTestData.xlsx
+++ b/src/test/resources/testdata/sauceDemoLoginTestData.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Library\I - Jan - March Automation\LoginModulesAutomation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2545F0D-82CC-44FB-86C3-5EC02CD1823A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA863A04-EC52-482F-97C7-757AF3800F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="verifyEmailFieldFormat" sheetId="1" r:id="rId1"/>
+    <sheet name="verifyLandingPages" sheetId="2" r:id="rId2"/>
+    <sheet name="verifyLandingPagesInvalidUser" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -43,16 +45,40 @@
   </si>
   <si>
     <t>nonsense</t>
+  </si>
+  <si>
+    <t>standard_user</t>
+  </si>
+  <si>
+    <t>problem_user</t>
+  </si>
+  <si>
+    <t>performance_glitch_user</t>
+  </si>
+  <si>
+    <t>error_user</t>
+  </si>
+  <si>
+    <t>visual_user</t>
+  </si>
+  <si>
+    <t>locked_out_user</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,7 +389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -407,4 +434,106 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082BDED4-2B82-4B47-8A0B-A02EDF57EF93}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97DC781-F51F-4DE5-AD85-BEA3F457E766}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testdata/sauceDemoLoginTestData.xlsx
+++ b/src/test/resources/testdata/sauceDemoLoginTestData.xlsx
@@ -8,14 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Library\I - Jan - March Automation\LoginModulesAutomation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA863A04-EC52-482F-97C7-757AF3800F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03E0B37-45E2-4BFA-86CC-233D30C66C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="verifyEmailFieldFormat" sheetId="1" r:id="rId1"/>
-    <sheet name="verifyLandingPages" sheetId="2" r:id="rId2"/>
-    <sheet name="verifyLandingPagesInvalidUser" sheetId="3" r:id="rId3"/>
+    <sheet name="VersionHistory" sheetId="4" r:id="rId1"/>
+    <sheet name="Testscenarios" sheetId="5" r:id="rId2"/>
+    <sheet name="Login" sheetId="6" r:id="rId3"/>
+    <sheet name="Sorting" sheetId="7" r:id="rId4"/>
+    <sheet name="AddToCart" sheetId="10" r:id="rId5"/>
+    <sheet name="verifyEmailFieldFormat" sheetId="1" r:id="rId6"/>
+    <sheet name="verifyLandingPages" sheetId="2" r:id="rId7"/>
+    <sheet name="verifyLandingPagesInvalidUser" sheetId="3" r:id="rId8"/>
+    <sheet name="verifySorting" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="98">
   <si>
     <t>username</t>
   </si>
@@ -63,13 +69,328 @@
   </si>
   <si>
     <t>locked_out_user</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Referenced Document</t>
+  </si>
+  <si>
+    <t>Created y</t>
+  </si>
+  <si>
+    <t>Creation Date</t>
+  </si>
+  <si>
+    <t>Approval Date</t>
+  </si>
+  <si>
+    <t>saucedemo demo site</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Manual Testcase</t>
+  </si>
+  <si>
+    <t>PS Sibisi (Jnr Agile Tester)</t>
+  </si>
+  <si>
+    <t>Test Scenario ID</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Test scenario Description</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>No. Testcases</t>
+  </si>
+  <si>
+    <t>TS-001 : Login Functionality</t>
+  </si>
+  <si>
+    <t>TS-003 : Add to cart</t>
+  </si>
+  <si>
+    <t>Verify ability to add item(s) to a shopping cart.</t>
+  </si>
+  <si>
+    <t>Verfity the logout functionlaity.</t>
+  </si>
+  <si>
+    <t>Verfity the login functionlaity.</t>
+  </si>
+  <si>
+    <t>Verify shopping cart functionality.</t>
+  </si>
+  <si>
+    <t>Verify deleting items from shopping cart.</t>
+  </si>
+  <si>
+    <t>Verify deleting items from shopping cart via Product page.</t>
+  </si>
+  <si>
+    <t>Verify navigating back to products page from shoppingcart.</t>
+  </si>
+  <si>
+    <t>Verify the logout functionality.</t>
+  </si>
+  <si>
+    <t>Verify the checkout functionality.</t>
+  </si>
+  <si>
+    <t>Testcase ID</t>
+  </si>
+  <si>
+    <t>Test scenario</t>
+  </si>
+  <si>
+    <t>Testcase Title</t>
+  </si>
+  <si>
+    <t>Pre-requisites</t>
+  </si>
+  <si>
+    <t>Test steps</t>
+  </si>
+  <si>
+    <t>Expected Results</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>TC-LF-001</t>
+  </si>
+  <si>
+    <t>verifyProvideUsernames. </t>
+  </si>
+  <si>
+    <t>Verify username &amp; passwords visibility. </t>
+  </si>
+  <si>
+    <t>Verify landing Pages for various users </t>
+  </si>
+  <si>
+    <t>Verify error messages for these users </t>
+  </si>
+  <si>
+    <t>TC-LF-002</t>
+  </si>
+  <si>
+    <t>TC-LF-003</t>
+  </si>
+  <si>
+    <t>TC-LF-004</t>
+  </si>
+  <si>
+    <t>TS-001 : Login Fuctionality</t>
+  </si>
+  <si>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t>Test scenarios</t>
+  </si>
+  <si>
+    <t>verifyEmailFieldFormat</t>
+  </si>
+  <si>
+    <t>Version No.</t>
+  </si>
+  <si>
+    <t>saucedemo site</t>
+  </si>
+  <si>
+    <t>Prepered By</t>
+  </si>
+  <si>
+    <t>PS Sibisi</t>
+  </si>
+  <si>
+    <t>v1.0.0</t>
+  </si>
+  <si>
+    <t>GitHub Repo</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>1. In the saucedemo site login page
+2. Enter testdata &amp; login.</t>
+  </si>
+  <si>
+    <t>1. In the saucedemo site login page verify listing of usernames &amp; a password.</t>
+  </si>
+  <si>
+    <t>1. A list of usernames &amp; a password.</t>
+  </si>
+  <si>
+    <t>verifyLandingPages</t>
+  </si>
+  <si>
+    <t>1. For the provide testdata, user successfully logins &amp; is redirected to Products page.</t>
+  </si>
+  <si>
+    <t>verifyLandingPagesInvalidUser</t>
+  </si>
+  <si>
+    <r>
+      <t>1. For the provide testdata, user gets an error message: "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Username and password do not match any user in this service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Error message should be displayed. Error message: "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Username and password do not match any user in this service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>TS-002 : Sort functionlaity</t>
+  </si>
+  <si>
+    <t>TS-004 : Shopping cart</t>
+  </si>
+  <si>
+    <t>TS-005 : Continue shopping</t>
+  </si>
+  <si>
+    <t>TS-006 : Remove Item from shoppingcart</t>
+  </si>
+  <si>
+    <t>TS-007 : Remove item from shoppingcart</t>
+  </si>
+  <si>
+    <t>TS-008 : Checkout</t>
+  </si>
+  <si>
+    <t>TS-009 : Logout</t>
+  </si>
+  <si>
+    <t>Sorting Types</t>
+  </si>
+  <si>
+    <t>Name (A to Z)</t>
+  </si>
+  <si>
+    <t>Name (Z to A)</t>
+  </si>
+  <si>
+    <t>Price (low to high)</t>
+  </si>
+  <si>
+    <t>Price (high to low)</t>
+  </si>
+  <si>
+    <t>verify adding one item</t>
+  </si>
+  <si>
+    <t>verify removing one item</t>
+  </si>
+  <si>
+    <t>verify adding multiple items</t>
+  </si>
+  <si>
+    <t>verify removing multiple items</t>
+  </si>
+  <si>
+    <t>1. Use credetials in pre-requisite to log into saucedemo.com
+2. In the product page add one item.</t>
+  </si>
+  <si>
+    <t>1. Use credetials in pre-requisite to log into saucedemo.com
+2. On the top right corner click cart icon &amp; remove item in the shopping-cart.</t>
+  </si>
+  <si>
+    <t>1. Use credetials in pre-requisite to log into saucedemo.com
+2. In the product page add multiple products.</t>
+  </si>
+  <si>
+    <t>1. Use credetials in pre-requisite to log into saucedemo.com
+2. On the top right corner click cart icon &amp; remove all items in the shopping-cart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Application URL (https://www.saucedemo.com/) in any supported Browser
+2. Login credentials username/password:standard_user/secret_sauce
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Application URL (https://www.saucedemo.com/) in any supported Browser
+2. Login credentials for an existing account are required.
+</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL (https://www.saucedemo.com/) in any supported Browser.</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL (https://www.saucedemo.com/) in any supported Browser
+2. Login credentials for an existing account are required.</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL (https://www.saucedemo.com/) in any supported Browser
+2. Login credentials for an existing account are required problematic accounts.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,16 +404,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -100,15 +464,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -386,12 +819,803 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A46F23A-1737-4286-B289-5F52CBCFC825}">
+  <dimension ref="L15:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="15" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M15" r:id="rId1" xr:uid="{7A0A7FAA-CF01-4052-AD8C-1A7C3FF8C6D0}"/>
+    <hyperlink ref="M16" r:id="rId2" xr:uid="{62D47CB3-C977-485A-9066-9068773CA32E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBE3EBE-E3E9-491E-A9DA-AFA7C7AC27FA}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="58.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{8FCCA2FE-FF90-4332-912F-79E4CBB65CE8}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{2A5E3F27-8BEB-4C9B-9B72-1C7ACBCAEE78}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0D06BE-88A9-4B3D-A371-621FEC80BC99}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="11" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2:J2" location="Testscenarios!A1" display="Test scenarios" xr:uid="{8E05B784-1B3F-49A3-B1CC-52F5E10DE887}"/>
+    <hyperlink ref="F3" location="verifyEmailFieldFormat!A1" display="verifyEmailFieldFormat" xr:uid="{FDA7FB6F-3795-4C9F-AD68-0531924A58A6}"/>
+    <hyperlink ref="F5" location="verifyLandingPages!A1" display="verifyLandingPages" xr:uid="{89CDAE9F-0515-4CD2-A643-82672B04322E}"/>
+    <hyperlink ref="F6" location="verifyLandingPagesInvalidUser!A1" display="verifyLandingPagesInvalidUser" xr:uid="{EB237091-49F9-4A71-BCB8-2DB35F4710E9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897176EE-73A7-47AF-B5BE-F9CDBD0A4BDC}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.28515625" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2:J2" location="Testscenarios!A1" display="Test scenarios" xr:uid="{BA9EE36B-85D1-4F86-B065-52D7E545C816}"/>
+    <hyperlink ref="F3" location="verifyEmailFieldFormat!A1" display="verifyEmailFieldFormat" xr:uid="{7D69A180-799D-4C98-A131-93306EA2B8A9}"/>
+    <hyperlink ref="F5" location="verifyLandingPages!A1" display="verifyLandingPages" xr:uid="{348DD53A-D9EE-4238-9AD2-7AA43C040E10}"/>
+    <hyperlink ref="F6" location="verifyLandingPagesInvalidUser!A1" display="verifyLandingPagesInvalidUser" xr:uid="{6B8FE727-E2F9-4793-849C-0EF1C78E9CCA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89958BCA-3295-4FF0-8FB9-B3948AEE8CA7}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2:J2" location="Testscenarios!A1" display="Test scenarios" xr:uid="{C8DEC64A-A015-411F-98D7-8D38357F42E8}"/>
+    <hyperlink ref="F3" location="verifyEmailFieldFormat!A1" display="verifyEmailFieldFormat" xr:uid="{4CB437C5-6375-4D9E-9F31-44D5263FEFB7}"/>
+    <hyperlink ref="F5" location="verifyLandingPages!A1" display="verifyLandingPages" xr:uid="{4FEFBDAA-A188-4BE0-B2DA-7ADD8DDF3D04}"/>
+    <hyperlink ref="F6" location="verifyLandingPagesInvalidUser!A1" display="verifyLandingPagesInvalidUser" xr:uid="{CA12ACE8-CC88-461B-83DE-C53A65CA8992}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -436,7 +1660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082BDED4-2B82-4B47-8A0B-A02EDF57EF93}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -503,11 +1727,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97DC781-F51F-4DE5-AD85-BEA3F457E766}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -536,4 +1760,45 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288F3A01-2240-4D2E-B39D-8733F2D0C5B4}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testdata/sauceDemoLoginTestData.xlsx
+++ b/src/test/resources/testdata/sauceDemoLoginTestData.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Library\I - Jan - March Automation\LoginModulesAutomation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03E0B37-45E2-4BFA-86CC-233D30C66C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D9B350-0BBF-40C9-9DDB-F75D038356CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VersionHistory" sheetId="4" r:id="rId1"/>
     <sheet name="Testscenarios" sheetId="5" r:id="rId2"/>
-    <sheet name="Login" sheetId="6" r:id="rId3"/>
+    <sheet name="LoginTestcase" sheetId="6" r:id="rId3"/>
     <sheet name="Sorting" sheetId="7" r:id="rId4"/>
     <sheet name="AddToCart" sheetId="10" r:id="rId5"/>
-    <sheet name="verifyEmailFieldFormat" sheetId="1" r:id="rId6"/>
-    <sheet name="verifyLandingPages" sheetId="2" r:id="rId7"/>
-    <sheet name="verifyLandingPagesInvalidUser" sheetId="3" r:id="rId8"/>
-    <sheet name="verifySorting" sheetId="9" r:id="rId9"/>
+    <sheet name="LoginStandard_user" sheetId="11" r:id="rId6"/>
+    <sheet name="verifyEmailFieldFormat" sheetId="1" r:id="rId7"/>
+    <sheet name="verifyLandingPages" sheetId="2" r:id="rId8"/>
+    <sheet name="verifyLandingPagesInvalidUser" sheetId="3" r:id="rId9"/>
+    <sheet name="verifySorting" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="98">
   <si>
     <t>username</t>
   </si>
@@ -495,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -506,7 +507,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -516,19 +517,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -539,6 +536,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -837,7 +835,7 @@
       <c r="L15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -845,7 +843,7 @@
       <c r="L16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="M16" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -853,7 +851,7 @@
       <c r="L17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M17" s="13" t="s">
+      <c r="M17" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -861,19 +859,60 @@
       <c r="L18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M18" s="13"/>
+      <c r="M18" s="5"/>
     </row>
     <row r="19" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M19" s="13"/>
+      <c r="M19" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M15" r:id="rId1" xr:uid="{7A0A7FAA-CF01-4052-AD8C-1A7C3FF8C6D0}"/>
     <hyperlink ref="M16" r:id="rId2" xr:uid="{62D47CB3-C977-485A-9066-9068773CA32E}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288F3A01-2240-4D2E-B39D-8733F2D0C5B4}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1123,18 +1162,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1143,19 +1182,19 @@
       <c r="B3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="16" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1166,19 +1205,19 @@
       <c r="B4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="14" t="s">
         <v>66</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="14" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1189,19 +1228,19 @@
       <c r="B5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1212,19 +1251,19 @@
       <c r="B6" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="14" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1294,18 +1333,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1314,24 +1353,21 @@
       <c r="B3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -1340,24 +1376,21 @@
       <c r="B4" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="14" t="s">
         <v>66</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -1366,24 +1399,21 @@
       <c r="B5" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -1392,24 +1422,21 @@
       <c r="B6" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1429,7 +1456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89958BCA-3295-4FF0-8FB9-B3948AEE8CA7}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1480,18 +1507,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1500,24 +1527,21 @@
       <c r="B3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -1526,24 +1550,21 @@
       <c r="B4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="14" t="s">
         <v>90</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -1552,24 +1573,21 @@
       <c r="B5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -1578,24 +1596,21 @@
       <c r="B6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1612,6 +1627,41 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FC7113-2697-4FC2-A4C4-20A7D10D4CC4}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1660,7 +1710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082BDED4-2B82-4B47-8A0B-A02EDF57EF93}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1727,7 +1777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97DC781-F51F-4DE5-AD85-BEA3F457E766}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1760,45 +1810,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288F3A01-2240-4D2E-B39D-8733F2D0C5B4}">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>